--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2180.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2180.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.099596117802962</v>
+        <v>1.275898814201355</v>
       </c>
       <c r="B1">
-        <v>1.850441666886307</v>
+        <v>2.303384304046631</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.109617507076696</v>
+        <v>1.392434120178223</v>
       </c>
       <c r="E1">
-        <v>0.9216326772870355</v>
+        <v>0.8453736305236816</v>
       </c>
     </row>
   </sheetData>
